--- a/biology/Botanique/Petrea/Petrea.xlsx
+++ b/biology/Botanique/Petrea/Petrea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Petrea est un genre de liane vivace originaire de l'Amérique centrale. Les feuilles sont de texture.
 Carl von Linné l'a nommé Petrea en l'honneur de Robert James Petre qui fut un mécène de la botanique.
@@ -512,7 +524,9 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Selon ITIS :
 Petrea volubilis L. syn. Petrea kahautiana C. Presl., Petrea arborea Kunth., Petrea aspera Turcz.
@@ -544,7 +558,9 @@
           <t>Autres espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Petrea blanchetiana Schauer syn. Petrea algentryi Moldenke, Petrea peruviana Moldenke, Petrea obtusifolia Benth.
 Petrea bracteata Steud., syn. Petrea martiana Schauer, Petrea schomburgkiana Schauer
